--- a/C,C++/baekjoon/KOI2004/n2612/memo.xlsx
+++ b/C,C++/baekjoon/KOI2004/n2612/memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\algorithm-study\C,C++\baekjoon\KOI2004\n2612\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C2E2CEB-469D-4C89-A101-52D6B7D4B0D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D679E43B-0C2E-4DA3-BD7C-8F55144FE7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14625" yWindow="0" windowWidth="19290" windowHeight="15600" xr2:uid="{DF33D2E6-E328-40A5-A1BF-A295DAEBF7B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="4">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC3BDE2-8FE8-41BE-AE45-58BB8A02140D}">
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -579,6 +579,354 @@
         <v>3</v>
       </c>
       <c r="H7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
         <v>6</v>
       </c>
     </row>
